--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna2-Epha2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna2-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.73649188783168</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H2">
-        <v>2.73649188783168</v>
+        <v>8.294293</v>
       </c>
       <c r="I2">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J2">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.5855625323918</v>
+        <v>18.86952466666667</v>
       </c>
       <c r="N2">
-        <v>18.5855625323918</v>
+        <v>56.608574</v>
       </c>
       <c r="O2">
-        <v>0.6247634178306313</v>
+        <v>0.600120086407596</v>
       </c>
       <c r="P2">
-        <v>0.6247634178306313</v>
+        <v>0.6001200864075961</v>
       </c>
       <c r="Q2">
-        <v>50.85924110067858</v>
+        <v>52.16978878535356</v>
       </c>
       <c r="R2">
-        <v>50.85924110067858</v>
+        <v>469.528099068182</v>
       </c>
       <c r="S2">
-        <v>0.1807319835440827</v>
+        <v>0.1573301859484763</v>
       </c>
       <c r="T2">
-        <v>0.1807319835440827</v>
+        <v>0.1573301859484763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.73649188783168</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H3">
-        <v>2.73649188783168</v>
+        <v>8.294293</v>
       </c>
       <c r="I3">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J3">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.99208319431899</v>
+        <v>2.156330666666667</v>
       </c>
       <c r="N3">
-        <v>1.99208319431899</v>
+        <v>6.468992</v>
       </c>
       <c r="O3">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="P3">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="Q3">
-        <v>5.451319501139737</v>
+        <v>5.96174611807289</v>
       </c>
       <c r="R3">
-        <v>5.451319501139737</v>
+        <v>53.655715062656</v>
       </c>
       <c r="S3">
-        <v>0.01937165724559698</v>
+        <v>0.01797903819762719</v>
       </c>
       <c r="T3">
-        <v>0.01937165724559698</v>
+        <v>0.01797903819762719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.73649188783168</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H4">
-        <v>2.73649188783168</v>
+        <v>8.294293</v>
       </c>
       <c r="I4">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J4">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.615692822792106</v>
+        <v>0.7389603333333333</v>
       </c>
       <c r="N4">
-        <v>0.615692822792106</v>
+        <v>2.216881</v>
       </c>
       <c r="O4">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="P4">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="Q4">
-        <v>1.684838414966786</v>
+        <v>2.043051173348111</v>
       </c>
       <c r="R4">
-        <v>1.684838414966786</v>
+        <v>18.387460560133</v>
       </c>
       <c r="S4">
-        <v>0.005987194895130922</v>
+        <v>0.006161298109287191</v>
       </c>
       <c r="T4">
-        <v>0.005987194895130922</v>
+        <v>0.006161298109287191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.73649188783168</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H5">
-        <v>2.73649188783168</v>
+        <v>8.294293</v>
       </c>
       <c r="I5">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J5">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.535392811667279</v>
+        <v>0.6253503333333333</v>
       </c>
       <c r="N5">
-        <v>0.535392811667279</v>
+        <v>1.876051</v>
       </c>
       <c r="O5">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="P5">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="Q5">
-        <v>1.465098085930904</v>
+        <v>1.728946297438111</v>
       </c>
       <c r="R5">
-        <v>1.465098085930904</v>
+        <v>15.560516676943</v>
       </c>
       <c r="S5">
-        <v>0.005206331778186879</v>
+        <v>0.005214041475039186</v>
       </c>
       <c r="T5">
-        <v>0.005206331778186879</v>
+        <v>0.005214041475039186</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.73649188783168</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H6">
-        <v>2.73649188783168</v>
+        <v>8.294293</v>
       </c>
       <c r="I6">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J6">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.019429305673169</v>
+        <v>9.052748666666666</v>
       </c>
       <c r="N6">
-        <v>8.019429305673169</v>
+        <v>27.158246</v>
       </c>
       <c r="O6">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="P6">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="Q6">
-        <v>21.94510324001427</v>
+        <v>25.02871663223089</v>
       </c>
       <c r="R6">
-        <v>21.94510324001427</v>
+        <v>225.258449690078</v>
       </c>
       <c r="S6">
-        <v>0.07798350804716464</v>
+        <v>0.07547994219417119</v>
       </c>
       <c r="T6">
-        <v>0.07798350804716464</v>
+        <v>0.07547994219417119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.89473477325209</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H7">
-        <v>5.89473477325209</v>
+        <v>17.776364</v>
       </c>
       <c r="I7">
-        <v>0.6231455918953174</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J7">
-        <v>0.6231455918953174</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.5855625323918</v>
+        <v>18.86952466666667</v>
       </c>
       <c r="N7">
-        <v>18.5855625323918</v>
+        <v>56.608574</v>
       </c>
       <c r="O7">
-        <v>0.6247634178306313</v>
+        <v>0.600120086407596</v>
       </c>
       <c r="P7">
-        <v>0.6247634178306313</v>
+        <v>0.6001200864075961</v>
       </c>
       <c r="Q7">
-        <v>109.5569617401411</v>
+        <v>111.8105129938818</v>
       </c>
       <c r="R7">
-        <v>109.5569617401411</v>
+        <v>1006.294616944936</v>
       </c>
       <c r="S7">
-        <v>0.3893185697986102</v>
+        <v>0.3371907230197679</v>
       </c>
       <c r="T7">
-        <v>0.3893185697986102</v>
+        <v>0.3371907230197679</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.89473477325209</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H8">
-        <v>5.89473477325209</v>
+        <v>17.776364</v>
       </c>
       <c r="I8">
-        <v>0.6231455918953174</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J8">
-        <v>0.6231455918953174</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.99208319431899</v>
+        <v>2.156330666666667</v>
       </c>
       <c r="N8">
-        <v>1.99208319431899</v>
+        <v>6.468992</v>
       </c>
       <c r="O8">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="P8">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="Q8">
-        <v>11.74280207676325</v>
+        <v>12.77723961167645</v>
       </c>
       <c r="R8">
-        <v>11.74280207676325</v>
+        <v>114.995156505088</v>
       </c>
       <c r="S8">
-        <v>0.04172889460732986</v>
+        <v>0.03853275105797745</v>
       </c>
       <c r="T8">
-        <v>0.04172889460732986</v>
+        <v>0.03853275105797744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.89473477325209</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H9">
-        <v>5.89473477325209</v>
+        <v>17.776364</v>
       </c>
       <c r="I9">
-        <v>0.6231455918953174</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J9">
-        <v>0.6231455918953174</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.615692822792106</v>
+        <v>0.7389603333333333</v>
       </c>
       <c r="N9">
-        <v>0.615692822792106</v>
+        <v>2.216881</v>
       </c>
       <c r="O9">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="P9">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="Q9">
-        <v>3.629345892154364</v>
+        <v>4.378675955631556</v>
       </c>
       <c r="R9">
-        <v>3.629345892154364</v>
+        <v>39.408083600684</v>
       </c>
       <c r="S9">
-        <v>0.01289714254206351</v>
+        <v>0.01320492028714212</v>
       </c>
       <c r="T9">
-        <v>0.01289714254206351</v>
+        <v>0.01320492028714212</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.89473477325209</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H10">
-        <v>5.89473477325209</v>
+        <v>17.776364</v>
       </c>
       <c r="I10">
-        <v>0.6231455918953174</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J10">
-        <v>0.6231455918953174</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.535392811667279</v>
+        <v>0.6253503333333333</v>
       </c>
       <c r="N10">
-        <v>0.535392811667279</v>
+        <v>1.876051</v>
       </c>
       <c r="O10">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="P10">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="Q10">
-        <v>3.155998624284317</v>
+        <v>3.705485050951556</v>
       </c>
       <c r="R10">
-        <v>3.155998624284317</v>
+        <v>33.349365458564</v>
       </c>
       <c r="S10">
-        <v>0.01121506886624957</v>
+        <v>0.01117475584373418</v>
       </c>
       <c r="T10">
-        <v>0.01121506886624957</v>
+        <v>0.01117475584373418</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.89473477325209</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H11">
-        <v>5.89473477325209</v>
+        <v>17.776364</v>
       </c>
       <c r="I11">
-        <v>0.6231455918953174</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J11">
-        <v>0.6231455918953174</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.019429305673169</v>
+        <v>9.052748666666666</v>
       </c>
       <c r="N11">
-        <v>8.019429305673169</v>
+        <v>27.158246</v>
       </c>
       <c r="O11">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="P11">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="Q11">
-        <v>47.27240878978849</v>
+        <v>53.64165183306044</v>
       </c>
       <c r="R11">
-        <v>47.27240878978849</v>
+        <v>482.774866497544</v>
       </c>
       <c r="S11">
-        <v>0.1679859160810642</v>
+        <v>0.1617689328243584</v>
       </c>
       <c r="T11">
-        <v>0.1679859160810642</v>
+        <v>0.1617689328243583</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.82841623765369</v>
+        <v>0.3772583333333333</v>
       </c>
       <c r="H12">
-        <v>0.82841623765369</v>
+        <v>1.131775</v>
       </c>
       <c r="I12">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651124</v>
       </c>
       <c r="J12">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651123</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.5855625323918</v>
+        <v>18.86952466666667</v>
       </c>
       <c r="N12">
-        <v>18.5855625323918</v>
+        <v>56.608574</v>
       </c>
       <c r="O12">
-        <v>0.6247634178306313</v>
+        <v>0.600120086407596</v>
       </c>
       <c r="P12">
-        <v>0.6247634178306313</v>
+        <v>0.6001200864075961</v>
       </c>
       <c r="Q12">
-        <v>15.3965817877614</v>
+        <v>7.118685426538889</v>
       </c>
       <c r="R12">
-        <v>15.3965817877614</v>
+        <v>64.06816883885</v>
       </c>
       <c r="S12">
-        <v>0.05471286448793845</v>
+        <v>0.02146805896558474</v>
       </c>
       <c r="T12">
-        <v>0.05471286448793845</v>
+        <v>0.02146805896558474</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.82841623765369</v>
+        <v>0.3772583333333333</v>
       </c>
       <c r="H13">
-        <v>0.82841623765369</v>
+        <v>1.131775</v>
       </c>
       <c r="I13">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651124</v>
       </c>
       <c r="J13">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651123</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.99208319431899</v>
+        <v>2.156330666666667</v>
       </c>
       <c r="N13">
-        <v>1.99208319431899</v>
+        <v>6.468992</v>
       </c>
       <c r="O13">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="P13">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="Q13">
-        <v>1.650274064930882</v>
+        <v>0.8134937134222222</v>
       </c>
       <c r="R13">
-        <v>1.650274064930882</v>
+        <v>7.3214434208</v>
       </c>
       <c r="S13">
-        <v>0.005864367982917764</v>
+        <v>0.002453280340605223</v>
       </c>
       <c r="T13">
-        <v>0.005864367982917764</v>
+        <v>0.002453280340605223</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.82841623765369</v>
+        <v>0.3772583333333333</v>
       </c>
       <c r="H14">
-        <v>0.82841623765369</v>
+        <v>1.131775</v>
       </c>
       <c r="I14">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651124</v>
       </c>
       <c r="J14">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651123</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.615692822792106</v>
+        <v>0.7389603333333333</v>
       </c>
       <c r="N14">
-        <v>0.615692822792106</v>
+        <v>2.216881</v>
       </c>
       <c r="O14">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="P14">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="Q14">
-        <v>0.5100499318078165</v>
+        <v>0.2787789437527777</v>
       </c>
       <c r="R14">
-        <v>0.5100499318078165</v>
+        <v>2.509010493775</v>
       </c>
       <c r="S14">
-        <v>0.001812499240790301</v>
+        <v>0.0008407230330105907</v>
       </c>
       <c r="T14">
-        <v>0.001812499240790301</v>
+        <v>0.0008407230330105905</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.82841623765369</v>
+        <v>0.3772583333333333</v>
       </c>
       <c r="H15">
-        <v>0.82841623765369</v>
+        <v>1.131775</v>
       </c>
       <c r="I15">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651124</v>
       </c>
       <c r="J15">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651123</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.535392811667279</v>
+        <v>0.6253503333333333</v>
       </c>
       <c r="N15">
-        <v>0.535392811667279</v>
+        <v>1.876051</v>
       </c>
       <c r="O15">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="P15">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="Q15">
-        <v>0.4435280987082379</v>
+        <v>0.2359186245027778</v>
       </c>
       <c r="R15">
-        <v>0.4435280987082379</v>
+        <v>2.123267620525</v>
       </c>
       <c r="S15">
-        <v>0.001576109106276185</v>
+        <v>0.0007114677273171414</v>
       </c>
       <c r="T15">
-        <v>0.001576109106276185</v>
+        <v>0.0007114677273171413</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3772583333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.131775</v>
+      </c>
+      <c r="I16">
+        <v>0.03577293853651124</v>
+      </c>
+      <c r="J16">
+        <v>0.03577293853651123</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.052748666666666</v>
+      </c>
+      <c r="N16">
+        <v>27.158246</v>
+      </c>
+      <c r="O16">
+        <v>0.2879106076086415</v>
+      </c>
+      <c r="P16">
+        <v>0.2879106076086415</v>
+      </c>
+      <c r="Q16">
+        <v>3.415224874072222</v>
+      </c>
+      <c r="R16">
+        <v>30.73702386665</v>
+      </c>
+      <c r="S16">
+        <v>0.01029940846999354</v>
+      </c>
+      <c r="T16">
+        <v>0.01029940846999353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.587637</v>
+      </c>
+      <c r="H17">
+        <v>1.762911</v>
+      </c>
+      <c r="I17">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J17">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.86952466666667</v>
+      </c>
+      <c r="N17">
+        <v>56.608574</v>
+      </c>
+      <c r="O17">
+        <v>0.600120086407596</v>
+      </c>
+      <c r="P17">
+        <v>0.6001200864075961</v>
+      </c>
+      <c r="Q17">
+        <v>11.088430866546</v>
+      </c>
+      <c r="R17">
+        <v>99.79587779891401</v>
+      </c>
+      <c r="S17">
+        <v>0.03343975374882636</v>
+      </c>
+      <c r="T17">
+        <v>0.03343975374882637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.587637</v>
+      </c>
+      <c r="H18">
+        <v>1.762911</v>
+      </c>
+      <c r="I18">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J18">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.156330666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.468992</v>
+      </c>
+      <c r="O18">
+        <v>0.0685792233171259</v>
+      </c>
+      <c r="P18">
+        <v>0.0685792233171259</v>
+      </c>
+      <c r="Q18">
+        <v>1.267139683968</v>
+      </c>
+      <c r="R18">
+        <v>11.404257155712</v>
+      </c>
+      <c r="S18">
+        <v>0.003821355745211455</v>
+      </c>
+      <c r="T18">
+        <v>0.003821355745211454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.587637</v>
+      </c>
+      <c r="H19">
+        <v>1.762911</v>
+      </c>
+      <c r="I19">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J19">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7389603333333333</v>
+      </c>
+      <c r="N19">
+        <v>2.216881</v>
+      </c>
+      <c r="O19">
+        <v>0.02350164865971288</v>
+      </c>
+      <c r="P19">
+        <v>0.02350164865971288</v>
+      </c>
+      <c r="Q19">
+        <v>0.434240433399</v>
+      </c>
+      <c r="R19">
+        <v>3.908163900591</v>
+      </c>
+      <c r="S19">
+        <v>0.001309553473833344</v>
+      </c>
+      <c r="T19">
+        <v>0.001309553473833344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.587637</v>
+      </c>
+      <c r="H20">
+        <v>1.762911</v>
+      </c>
+      <c r="I20">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J20">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6253503333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.876051</v>
+      </c>
+      <c r="O20">
+        <v>0.0198884340069237</v>
+      </c>
+      <c r="P20">
+        <v>0.0198884340069237</v>
+      </c>
+      <c r="Q20">
+        <v>0.367478993829</v>
+      </c>
+      <c r="R20">
+        <v>3.307310944461</v>
+      </c>
+      <c r="S20">
+        <v>0.001108218756053446</v>
+      </c>
+      <c r="T20">
+        <v>0.001108218756053446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.587637</v>
+      </c>
+      <c r="H21">
+        <v>1.762911</v>
+      </c>
+      <c r="I21">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J21">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.052748666666666</v>
+      </c>
+      <c r="N21">
+        <v>27.158246</v>
+      </c>
+      <c r="O21">
+        <v>0.2879106076086415</v>
+      </c>
+      <c r="P21">
+        <v>0.2879106076086415</v>
+      </c>
+      <c r="Q21">
+        <v>5.319730068234</v>
+      </c>
+      <c r="R21">
+        <v>47.87757061410599</v>
+      </c>
+      <c r="S21">
+        <v>0.01604288881203841</v>
+      </c>
+      <c r="T21">
+        <v>0.01604288881203841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H22">
+        <v>2.672399</v>
+      </c>
+      <c r="I22">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J22">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>18.86952466666667</v>
+      </c>
+      <c r="N22">
+        <v>56.608574</v>
+      </c>
+      <c r="O22">
+        <v>0.600120086407596</v>
+      </c>
+      <c r="P22">
+        <v>0.6001200864075961</v>
+      </c>
+      <c r="Q22">
+        <v>16.80896628322511</v>
+      </c>
+      <c r="R22">
+        <v>151.280696549026</v>
+      </c>
+      <c r="S22">
+        <v>0.05069136472494065</v>
+      </c>
+      <c r="T22">
+        <v>0.05069136472494065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H23">
+        <v>2.672399</v>
+      </c>
+      <c r="I23">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J23">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.156330666666667</v>
+      </c>
+      <c r="N23">
+        <v>6.468992</v>
+      </c>
+      <c r="O23">
+        <v>0.0685792233171259</v>
+      </c>
+      <c r="P23">
+        <v>0.0685792233171259</v>
+      </c>
+      <c r="Q23">
+        <v>1.920858639089778</v>
+      </c>
+      <c r="R23">
+        <v>17.287727751808</v>
+      </c>
+      <c r="S23">
+        <v>0.005792797975704586</v>
+      </c>
+      <c r="T23">
+        <v>0.005792797975704585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.82841623765369</v>
-      </c>
-      <c r="H16">
-        <v>0.82841623765369</v>
-      </c>
-      <c r="I16">
-        <v>0.08757373259452061</v>
-      </c>
-      <c r="J16">
-        <v>0.08757373259452061</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.019429305673169</v>
-      </c>
-      <c r="N16">
-        <v>8.019429305673169</v>
-      </c>
-      <c r="O16">
-        <v>0.2695773159048267</v>
-      </c>
-      <c r="P16">
-        <v>0.2695773159048267</v>
-      </c>
-      <c r="Q16">
-        <v>6.64342545353551</v>
-      </c>
-      <c r="R16">
-        <v>6.64342545353551</v>
-      </c>
-      <c r="S16">
-        <v>0.0236078917765979</v>
-      </c>
-      <c r="T16">
-        <v>0.0236078917765979</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H24">
+        <v>2.672399</v>
+      </c>
+      <c r="I24">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J24">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7389603333333333</v>
+      </c>
+      <c r="N24">
+        <v>2.216881</v>
+      </c>
+      <c r="O24">
+        <v>0.02350164865971288</v>
+      </c>
+      <c r="P24">
+        <v>0.02350164865971288</v>
+      </c>
+      <c r="Q24">
+        <v>0.6582656186132223</v>
+      </c>
+      <c r="R24">
+        <v>5.924390567519001</v>
+      </c>
+      <c r="S24">
+        <v>0.001985153756439637</v>
+      </c>
+      <c r="T24">
+        <v>0.001985153756439637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H25">
+        <v>2.672399</v>
+      </c>
+      <c r="I25">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J25">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6253503333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.876051</v>
+      </c>
+      <c r="O25">
+        <v>0.0198884340069237</v>
+      </c>
+      <c r="P25">
+        <v>0.0198884340069237</v>
+      </c>
+      <c r="Q25">
+        <v>0.5570618684832223</v>
+      </c>
+      <c r="R25">
+        <v>5.013556816349</v>
+      </c>
+      <c r="S25">
+        <v>0.00167995020477975</v>
+      </c>
+      <c r="T25">
+        <v>0.00167995020477975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H26">
+        <v>2.672399</v>
+      </c>
+      <c r="I26">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J26">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.052748666666666</v>
+      </c>
+      <c r="N26">
+        <v>27.158246</v>
+      </c>
+      <c r="O26">
+        <v>0.2879106076086415</v>
+      </c>
+      <c r="P26">
+        <v>0.2879106076086415</v>
+      </c>
+      <c r="Q26">
+        <v>8.064185494683779</v>
+      </c>
+      <c r="R26">
+        <v>72.57766945215401</v>
+      </c>
+      <c r="S26">
+        <v>0.02431943530808002</v>
+      </c>
+      <c r="T26">
+        <v>0.02431943530808001</v>
       </c>
     </row>
   </sheetData>
